--- a/scenarios/cough/processes/APICalmer.xlsx
+++ b/scenarios/cough/processes/APICalmer.xlsx
@@ -148,7 +148,7 @@
     <t xml:space="preserve">Dextrometorphan, der Wirkstoff im Wick Husten-Sirup ist der meiner Meinung nach am besten wirksame Hustenstiller.</t>
   </si>
   <si>
-    <t xml:space="preserve">IF [time] == 'few_days' THEN LOAD(Explanation), JUMP(Safety) ELSE JUMP(Explanation)</t>
+    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
   </si>
 </sst>
 </file>
@@ -288,7 +288,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
@@ -442,7 +442,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/scenarios/cough/processes/APICalmer.xlsx
+++ b/scenarios/cough/processes/APICalmer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -139,16 +139,47 @@
     <t xml:space="preserve">fasttrack_calmer</t>
   </si>
   <si>
-    <t xml:space="preserve">GO(fasttrack_calmer2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fasttrack_calmer2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dextrometorphan, der Wirkstoff im Wick Husten-Sirup ist der meiner Meinung nach am besten wirksame Hustenstiller.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IF ([time] == few_days) THEN (LOAD(Explanation), JUMP(Safety)) ELSE JUMP(Explanation)</t>
+    <t xml:space="preserve">Dextrometorphan der meiner Meinung nach am besten wirksame Hustenstiller.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">SELECT * FROM API WHERE Name == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Dextrometorphan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">'</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -159,7 +190,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -201,6 +232,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -292,7 +329,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -359,6 +396,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -439,10 +480,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,7 +646,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="5"/>
       <c r="B10" s="9"/>
       <c r="C10" s="5" t="s">
@@ -635,42 +676,26 @@
       <c r="F11" s="8"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="16"/>
-    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>

--- a/scenarios/cough/processes/APICalmer.xlsx
+++ b/scenarios/cough/processes/APICalmer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AC5B2E-BAB1-4C5E-800F-BE87E0FD18BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D03CC-EAC2-4A95-B559-B12475C4E98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>ID</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">api_calmer2 </t>
-  </si>
-  <si>
-    <t>Wähle einen der angezeigten Wirkstoffe aus um fortzufahren. Oder möchtest du mir eine Frage stellen?</t>
   </si>
   <si>
     <t>Wie kannst du dir so sicher sein, welche Wirkstoffe gut oder schlecht sind?</t>
@@ -185,6 +182,12 @@
   </si>
   <si>
     <t>CART(), JUMP(Explanation)</t>
+  </si>
+  <si>
+    <t>Wähle einen der angezeigten Wirkstoffe aus um fortzufahren.</t>
+  </si>
+  <si>
+    <t>Oder möchtest du mir eine Frage stellen?</t>
   </si>
 </sst>
 </file>
@@ -732,7 +735,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -781,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -797,10 +800,10 @@
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -854,7 +857,9 @@
       <c r="C7" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>40</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>25</v>
       </c>
@@ -865,7 +870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -874,7 +879,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
@@ -887,7 +892,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>15</v>
@@ -902,10 +907,10 @@
         <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="16"/>
@@ -917,30 +922,30 @@
         <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="16"/>
     </row>
     <row r="12" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>36</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="G12" s="16"/>
     </row>

--- a/scenarios/cough/processes/APICalmer.xlsx
+++ b/scenarios/cough/processes/APICalmer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01D03CC-EAC2-4A95-B559-B12475C4E98A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F2DA8-30A7-439A-9ABE-038DFCE70D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3291" yWindow="3291" windowWidth="11023" windowHeight="6926" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12 APIClamer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,6 @@
     <t>SELECT * FROM Products WHERE PZN == '811589'</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -102,18 +99,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>GO(api_calmer2)</t>
-  </si>
-  <si>
     <t>SELECT * FROM API WHERE CategoryChoice == 'Calmer'</t>
   </si>
   <si>
     <t>[api_calmer]</t>
   </si>
   <si>
-    <t xml:space="preserve">api_calmer2 </t>
-  </si>
-  <si>
     <t>Wie kannst du dir so sicher sein, welche Wirkstoffe gut oder schlecht sind?</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>GO(fasttrack_calmer)</t>
   </si>
   <si>
-    <t>Okay. Ich habe mich für einen Wirkstoff entschieden.</t>
-  </si>
-  <si>
     <t>JUMP(Usability2)</t>
   </si>
   <si>
@@ -135,66 +123,26 @@
     <t>Dextrometorphan der meiner Meinung nach am besten wirksame Hustenstiller.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">SELECT * FROM API WHERE Name == </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>Dextrometorphan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
     <t>Add to cart.</t>
   </si>
   <si>
-    <t>Das ist ein toller Hustenstiller. Mein persönlicher Favourit. Wenn du stattdessen ein anderes Medikament möchtest, dann stell mir eine Frage:</t>
-  </si>
-  <si>
     <t>CART(), JUMP(Explanation)</t>
   </si>
   <si>
     <t>Wähle einen der angezeigten Wirkstoffe aus um fortzufahren.</t>
   </si>
   <si>
-    <t>Oder möchtest du mir eine Frage stellen?</t>
+    <t>SELECT * FROM API WHERE Name == 'Dextrometorphan'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das ist ein toller Hustenstiller. Mein persönlicher Favourit. Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest. Oder  du möchtest stattdessen ein anderes Medikament. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -224,7 +172,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -297,7 +252,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,17 +291,29 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -732,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -773,7 +740,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.75" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -784,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -797,160 +764,130 @@
       <c r="A3" s="5"/>
       <c r="B3" s="9"/>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
       <c r="B4" s="9"/>
       <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
       <c r="B5" s="9"/>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="145.75" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="D7" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="13" t="s">
+      <c r="G7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="14" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="E8" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="21"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
+      <c r="E9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="F10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G12" s="16"/>
+      <c r="G10" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scenarios/cough/processes/APICalmer.xlsx
+++ b/scenarios/cough/processes/APICalmer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\cough\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2F2DA8-30A7-439A-9ABE-038DFCE70D3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC0B2E9-F5DA-4E01-9D33-EEE90D5EAB85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3291" yWindow="3291" windowWidth="11023" windowHeight="6926" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="12 APIClamer" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -99,30 +99,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>SELECT * FROM API WHERE CategoryChoice == 'Calmer'</t>
-  </si>
-  <si>
     <t>[api_calmer]</t>
   </si>
   <si>
-    <t>Wie kannst du dir so sicher sein, welche Wirkstoffe gut oder schlecht sind?</t>
-  </si>
-  <si>
-    <t>Welchen Wirkstoff findest du am Besten?</t>
-  </si>
-  <si>
-    <t>GO(fasttrack_calmer)</t>
-  </si>
-  <si>
     <t>JUMP(Usability2)</t>
   </si>
   <si>
-    <t>fasttrack_calmer</t>
-  </si>
-  <si>
-    <t>Dextrometorphan der meiner Meinung nach am besten wirksame Hustenstiller.</t>
-  </si>
-  <si>
     <t>Add to cart.</t>
   </si>
   <si>
@@ -132,10 +114,10 @@
     <t>Wähle einen der angezeigten Wirkstoffe aus um fortzufahren.</t>
   </si>
   <si>
-    <t>SELECT * FROM API WHERE Name == 'Dextrometorphan'</t>
-  </si>
-  <si>
     <t xml:space="preserve">Das ist ein toller Hustenstiller. Mein persönlicher Favourit. Zum fortfahren, füge das Medikament einfach zum Einkaufswagen hinzu. Am Ende sprechen wir noch über das Produkt und wie du es anwendest. Oder  du möchtest stattdessen ein anderes Medikament. </t>
+  </si>
+  <si>
+    <t>SELECT * FROM API WHERE (CategoryChoice == 'Calmer' AND Include == 'ja')</t>
   </si>
 </sst>
 </file>
@@ -702,7 +684,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.3828125" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -751,7 +733,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -767,10 +749,10 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -825,65 +807,43 @@
         <v>23</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="F7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="17"/>
       <c r="B8" s="18"/>
-      <c r="C8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>14</v>
-      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="21"/>
       <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="17"/>
       <c r="B9" s="18"/>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:7" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A10" s="17" t="s">
-        <v>30</v>
-      </c>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="17"/>
       <c r="B10" s="18"/>
-      <c r="C10" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>35</v>
-      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="15"/>
     </row>
   </sheetData>

--- a/scenarios/cough/processes/APICalmer.xlsx
+++ b/scenarios/cough/processes/APICalmer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -41,6 +41,12 @@
   </si>
   <si>
     <t xml:space="preserve">Output</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Popup</t>
   </si>
   <si>
     <t xml:space="preserve">calmer </t>
@@ -271,7 +277,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -282,6 +288,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -442,19 +452,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.38671875" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.39453125" defaultRowHeight="14.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="48.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="32.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="45.61"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.15"/>
@@ -482,130 +492,136 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>19</v>
+      <c r="A5" s="6"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="145.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="C6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="D7" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
+      <c r="F7" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="21"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
